--- a/exposan/bwaise/results/sysA_report.xlsx
+++ b/exposan/bwaise/results/sysA_report.xlsx
@@ -1193,7 +1193,7 @@
         <v>0</v>
       </c>
       <c r="E3">
-        <v>4.490192037543751</v>
+        <v>3.9277397109375</v>
       </c>
       <c r="F3">
         <v>0</v>
@@ -1211,7 +1211,7 @@
         <v>1.844584819260415</v>
       </c>
       <c r="K3">
-        <v>0.3227926591805353</v>
+        <v>0.203425177162986</v>
       </c>
       <c r="L3">
         <v>0</v>
@@ -1220,19 +1220,19 @@
         <v>0</v>
       </c>
       <c r="N3">
-        <v>-6.01198419762363</v>
+        <v>-5.568899353034929</v>
       </c>
       <c r="O3">
-        <v>-1.52179216007988</v>
+        <v>-1.641159642097429</v>
       </c>
       <c r="P3">
         <v>0.9523809523809523</v>
       </c>
       <c r="Q3">
-        <v>-1.449325866742742</v>
+        <v>-1.563009182949933</v>
       </c>
       <c r="R3">
-        <v>-32.87124355424274</v>
+        <v>-32.98492687044993</v>
       </c>
     </row>
     <row r="4" spans="1:18">
@@ -1249,7 +1249,7 @@
         <v>0</v>
       </c>
       <c r="E4">
-        <v>7.69522764166875</v>
+        <v>3.9277397109375</v>
       </c>
       <c r="F4">
         <v>0</v>
@@ -1267,7 +1267,7 @@
         <v>1.844584819260415</v>
       </c>
       <c r="K4">
-        <v>0.3227926591805353</v>
+        <v>0.203425177162986</v>
       </c>
       <c r="L4">
         <v>0</v>
@@ -1276,19 +1276,19 @@
         <v>0</v>
       </c>
       <c r="N4">
-        <v>-9.217019801748629</v>
+        <v>-5.568899353034929</v>
       </c>
       <c r="O4">
-        <v>-1.52179216007988</v>
+        <v>-1.641159642097429</v>
       </c>
       <c r="P4">
         <v>0.9070294784580498</v>
       </c>
       <c r="Q4">
-        <v>-1.380310349278802</v>
+        <v>-1.488580174238031</v>
       </c>
       <c r="R4">
-        <v>-34.25155390352155</v>
+        <v>-34.47350704468796</v>
       </c>
     </row>
     <row r="5" spans="1:18">
@@ -1305,7 +1305,7 @@
         <v>0</v>
       </c>
       <c r="E5">
-        <v>5.49569340354375</v>
+        <v>3.9277397109375</v>
       </c>
       <c r="F5">
         <v>0</v>
@@ -1323,7 +1323,7 @@
         <v>1.844584819260415</v>
       </c>
       <c r="K5">
-        <v>0.3227926591805353</v>
+        <v>0.203425177162986</v>
       </c>
       <c r="L5">
         <v>0</v>
@@ -1332,19 +1332,19 @@
         <v>0</v>
       </c>
       <c r="N5">
-        <v>-7.017485563623629</v>
+        <v>-5.568899353034929</v>
       </c>
       <c r="O5">
-        <v>-1.52179216007988</v>
+        <v>-1.641159642097429</v>
       </c>
       <c r="P5">
         <v>0.863837598531476</v>
       </c>
       <c r="Q5">
-        <v>-1.314581285027431</v>
+        <v>-1.41769540403622</v>
       </c>
       <c r="R5">
-        <v>-35.56613518854898</v>
+        <v>-35.89120244872418</v>
       </c>
     </row>
     <row r="6" spans="1:18">
@@ -1361,7 +1361,7 @@
         <v>0</v>
       </c>
       <c r="E6">
-        <v>3.92459751916875</v>
+        <v>3.9277397109375</v>
       </c>
       <c r="F6">
         <v>0</v>
@@ -1379,7 +1379,7 @@
         <v>1.844584819260415</v>
       </c>
       <c r="K6">
-        <v>0.3227926591805353</v>
+        <v>0.203425177162986</v>
       </c>
       <c r="L6">
         <v>0</v>
@@ -1388,19 +1388,19 @@
         <v>0</v>
       </c>
       <c r="N6">
-        <v>-5.44638967924863</v>
+        <v>-5.568899353034929</v>
       </c>
       <c r="O6">
-        <v>-1.52179216007988</v>
+        <v>-1.641159642097429</v>
       </c>
       <c r="P6">
         <v>0.8227024747918819</v>
       </c>
       <c r="Q6">
-        <v>-1.251982176216601</v>
+        <v>-1.350186099082114</v>
       </c>
       <c r="R6">
-        <v>-36.81811736476558</v>
+        <v>-37.2413885478063</v>
       </c>
     </row>
     <row r="7" spans="1:18">
@@ -1417,7 +1417,7 @@
         <v>0</v>
       </c>
       <c r="E7">
-        <v>2.80597724949375</v>
+        <v>3.9277397109375</v>
       </c>
       <c r="F7">
         <v>0</v>
@@ -1435,7 +1435,7 @@
         <v>1.844584819260415</v>
       </c>
       <c r="K7">
-        <v>0.3227926591805353</v>
+        <v>0.203425177162986</v>
       </c>
       <c r="L7">
         <v>0</v>
@@ -1444,19 +1444,19 @@
         <v>0</v>
       </c>
       <c r="N7">
-        <v>-4.32776940957363</v>
+        <v>-5.568899353034929</v>
       </c>
       <c r="O7">
-        <v>-1.52179216007988</v>
+        <v>-1.641159642097429</v>
       </c>
       <c r="P7">
         <v>0.7835261664684589</v>
       </c>
       <c r="Q7">
-        <v>-1.192363977349144</v>
+        <v>-1.285891522935347</v>
       </c>
       <c r="R7">
-        <v>-38.01048134211472</v>
+        <v>-38.52728007074164</v>
       </c>
     </row>
     <row r="8" spans="1:18">
@@ -1473,7 +1473,7 @@
         <v>0</v>
       </c>
       <c r="E8">
-        <v>2.802835057725</v>
+        <v>3.9277397109375</v>
       </c>
       <c r="F8">
         <v>0</v>
@@ -1491,7 +1491,7 @@
         <v>1.844584819260415</v>
       </c>
       <c r="K8">
-        <v>0.3227926591805353</v>
+        <v>0.203425177162986</v>
       </c>
       <c r="L8">
         <v>0</v>
@@ -1500,19 +1500,19 @@
         <v>0</v>
       </c>
       <c r="N8">
-        <v>-4.324627217804879</v>
+        <v>-5.568899353034929</v>
       </c>
       <c r="O8">
-        <v>-1.52179216007988</v>
+        <v>-1.641159642097429</v>
       </c>
       <c r="P8">
         <v>0.7462153966366274</v>
       </c>
       <c r="Q8">
-        <v>-1.135584740332517</v>
+        <v>-1.224658593271759</v>
       </c>
       <c r="R8">
-        <v>-39.14606608244724</v>
+        <v>-39.7519386640134</v>
       </c>
     </row>
     <row r="9" spans="1:18">
@@ -1529,7 +1529,7 @@
         <v>0</v>
       </c>
       <c r="E9">
-        <v>2.80597724949375</v>
+        <v>3.9277397109375</v>
       </c>
       <c r="F9">
         <v>0</v>
@@ -1547,7 +1547,7 @@
         <v>1.844584819260415</v>
       </c>
       <c r="K9">
-        <v>0.3227926591805353</v>
+        <v>0.203425177162986</v>
       </c>
       <c r="L9">
         <v>0</v>
@@ -1556,19 +1556,19 @@
         <v>0</v>
       </c>
       <c r="N9">
-        <v>-4.32776940957363</v>
+        <v>-5.568899353034929</v>
       </c>
       <c r="O9">
-        <v>-1.52179216007988</v>
+        <v>-1.641159642097429</v>
       </c>
       <c r="P9">
         <v>0.7106813301301214</v>
       </c>
       <c r="Q9">
-        <v>-1.08150927650716</v>
+        <v>-1.166341517401675</v>
       </c>
       <c r="R9">
-        <v>-40.2275753589544</v>
+        <v>-40.91828018141507</v>
       </c>
     </row>
     <row r="10" spans="1:18">
@@ -1585,7 +1585,7 @@
         <v>-0</v>
       </c>
       <c r="E10">
-        <v>1.4014175288625</v>
+        <v>3.9277397109375</v>
       </c>
       <c r="F10">
         <v>0</v>
@@ -1603,7 +1603,7 @@
         <v>1.844584819260415</v>
       </c>
       <c r="K10">
-        <v>0.3227926591805353</v>
+        <v>0.203425177162986</v>
       </c>
       <c r="L10">
         <v>0</v>
@@ -1612,19 +1612,19 @@
         <v>0</v>
       </c>
       <c r="N10">
-        <v>-2.92320968894238</v>
+        <v>-5.568899353034929</v>
       </c>
       <c r="O10">
-        <v>-1.52179216007988</v>
+        <v>-1.641159642097429</v>
       </c>
       <c r="P10">
         <v>0.676839362028687</v>
       </c>
       <c r="Q10">
-        <v>-1.030008834768724</v>
+        <v>-1.110801445144452</v>
       </c>
       <c r="R10">
-        <v>-41.25758419372312</v>
+        <v>-42.02908162655952</v>
       </c>
     </row>
   </sheetData>
@@ -2258,61 +2258,61 @@
         <v>0</v>
       </c>
       <c r="D7">
-        <v>4.973534897846051</v>
+        <v>25.41316588129093</v>
       </c>
       <c r="E7">
         <v>0</v>
       </c>
       <c r="F7">
-        <v>18.65704309916056</v>
+        <v>18.26363748084824</v>
       </c>
       <c r="G7">
         <v>0</v>
       </c>
       <c r="H7">
-        <v>1.399278232437042</v>
+        <v>1.369772811063618</v>
       </c>
       <c r="I7">
-        <v>0.03233962298548676</v>
+        <v>0.9473035821067107</v>
       </c>
       <c r="J7">
-        <v>3.028903542442585</v>
+        <v>2.210125345775329</v>
       </c>
       <c r="K7">
-        <v>0.01021293548951343</v>
+        <v>0.01929862037353415</v>
       </c>
       <c r="L7">
-        <v>70.0870600235134</v>
+        <v>89.28500177060526</v>
       </c>
       <c r="M7">
-        <v>0.04255255847500018</v>
+        <v>0.966602202480245</v>
       </c>
       <c r="N7">
         <v>28.25077749748643</v>
       </c>
       <c r="O7">
-        <v>46.07990612355569</v>
+        <v>11.06791860488467</v>
       </c>
       <c r="P7">
         <v>4.934529836990166</v>
       </c>
       <c r="Q7">
-        <v>11278.07439557711</v>
+        <v>11024.54625250817</v>
       </c>
       <c r="R7">
         <v>4.307531168981041</v>
       </c>
       <c r="S7">
-        <v>1.825957475111844</v>
+        <v>0.6695975807819345</v>
       </c>
       <c r="T7">
         <v>3.049287990281032</v>
       </c>
       <c r="U7">
-        <v>1117.691921899113</v>
+        <v>293.1851518071049</v>
       </c>
       <c r="V7">
-        <v>11468.72431455273</v>
+        <v>11215.19617148378</v>
       </c>
       <c r="W7">
         <v>0</v>
@@ -2324,13 +2324,13 @@
         <v>0</v>
       </c>
       <c r="Z7">
-        <v>1126.874698533487</v>
+        <v>301.2115685471489</v>
       </c>
       <c r="AA7">
-        <v>652.6847782998941</v>
+        <v>1517.815239877236</v>
       </c>
       <c r="AB7">
-        <v>11360.19748558527</v>
+        <v>11070.27873050582</v>
       </c>
       <c r="AC7">
         <v>0.01041666666666667</v>
@@ -2342,19 +2342,19 @@
         <v>46151.37064015726</v>
       </c>
       <c r="AF7">
-        <v>11801.0167884562</v>
+        <v>11547.48864538725</v>
       </c>
       <c r="AG7">
-        <v>11357.33960903515</v>
+        <v>11068.79947844753</v>
       </c>
       <c r="AH7">
         <v>14075.35273972603</v>
       </c>
       <c r="AI7">
-        <v>2.857876550125845</v>
+        <v>1.479252058293635</v>
       </c>
       <c r="AJ7">
-        <v>1931.138395890413</v>
+        <v>1931.138395890412</v>
       </c>
       <c r="AK7">
         <v>0.000281583</v>
@@ -2418,7 +2418,7 @@
         <v>0</v>
       </c>
       <c r="O9">
-        <v>44.72460204116182</v>
+        <v>0</v>
       </c>
       <c r="P9">
         <v>0</v>
@@ -2439,7 +2439,7 @@
         <v>0</v>
       </c>
       <c r="V9">
-        <v>0.2003708180227448</v>
+        <v>0.2049003546123657</v>
       </c>
       <c r="W9">
         <v>0</v>
@@ -2457,7 +2457,7 @@
         <v>0</v>
       </c>
       <c r="AB9">
-        <v>0.1909627165220051</v>
+        <v>0</v>
       </c>
       <c r="AC9">
         <v>0.06574463999999999</v>
@@ -2469,16 +2469,16 @@
         <v>0.03670593194421815</v>
       </c>
       <c r="AF9">
-        <v>0.1947287859832709</v>
+        <v>0.1990041075729682</v>
       </c>
       <c r="AG9">
-        <v>0.1814602305130159</v>
+        <v>0</v>
       </c>
       <c r="AH9">
         <v>0.1665958663793536</v>
       </c>
       <c r="AI9">
-        <v>37.95430162961883</v>
+        <v>0</v>
       </c>
       <c r="AJ9">
         <v>0</v>
@@ -2540,7 +2540,7 @@
         <v>0</v>
       </c>
       <c r="O10">
-        <v>55.27539795883818</v>
+        <v>100</v>
       </c>
       <c r="P10">
         <v>0</v>
@@ -2561,7 +2561,7 @@
         <v>0</v>
       </c>
       <c r="V10">
-        <v>0.2266221078447728</v>
+        <v>0.2317450750494253</v>
       </c>
       <c r="W10">
         <v>0</v>
@@ -2573,13 +2573,13 @@
         <v>0</v>
       </c>
       <c r="Z10">
-        <v>0.162037312354971</v>
+        <v>0.2223014155836189</v>
       </c>
       <c r="AA10">
         <v>0</v>
       </c>
       <c r="AB10">
-        <v>0.2287870859421626</v>
+        <v>0.1020190617573027</v>
       </c>
       <c r="AC10">
         <v>0.26297856</v>
@@ -2591,19 +2591,19 @@
         <v>0</v>
       </c>
       <c r="AF10">
-        <v>0.220240893225146</v>
+        <v>0.2250763398232703</v>
       </c>
       <c r="AG10">
-        <v>0.2242677631000092</v>
+        <v>0.09999204183286028</v>
       </c>
       <c r="AH10">
         <v>0.2110829066666666</v>
       </c>
       <c r="AI10">
-        <v>18.18879460234276</v>
+        <v>15.26960118995282</v>
       </c>
       <c r="AJ10">
-        <v>0.1618623313054371</v>
+        <v>0.1618623313054372</v>
       </c>
       <c r="AK10">
         <v>0</v>
@@ -2683,7 +2683,7 @@
         <v>0</v>
       </c>
       <c r="V11">
-        <v>0.1097601265284525</v>
+        <v>0.112241338683486</v>
       </c>
       <c r="W11">
         <v>0</v>
@@ -2695,13 +2695,13 @@
         <v>0</v>
       </c>
       <c r="Z11">
-        <v>0.2705968990384974</v>
+        <v>1.012340928666465</v>
       </c>
       <c r="AA11">
         <v>0</v>
       </c>
       <c r="AB11">
-        <v>0.04432347706921553</v>
+        <v>0.04548426150884203</v>
       </c>
       <c r="AC11">
         <v>0.15953652</v>
@@ -2713,16 +2713,16 @@
         <v>0.007589476234595889</v>
       </c>
       <c r="AF11">
-        <v>0.1066695060646485</v>
+        <v>0.1090114630585144</v>
       </c>
       <c r="AG11">
-        <v>0.04344793769365303</v>
+        <v>0.04458053329630168</v>
       </c>
       <c r="AH11">
         <v>0.1133648633333333</v>
       </c>
       <c r="AI11">
-        <v>3.52375929416493</v>
+        <v>6.807811419710693</v>
       </c>
       <c r="AJ11">
         <v>0.157901059642857</v>
@@ -2805,7 +2805,7 @@
         <v>0</v>
       </c>
       <c r="V12">
-        <v>0.2513559763612752</v>
+        <v>0.257038071704216</v>
       </c>
       <c r="W12">
         <v>0</v>
@@ -2817,13 +2817,13 @@
         <v>0</v>
       </c>
       <c r="Z12">
-        <v>0.3822546707798883</v>
+        <v>1.43006830373674</v>
       </c>
       <c r="AA12">
         <v>0</v>
       </c>
       <c r="AB12">
-        <v>0.253757243336706</v>
+        <v>0.2604028740269107</v>
       </c>
       <c r="AC12">
         <v>0.23392512</v>
@@ -2835,19 +2835,19 @@
         <v>0.01947451275169619</v>
       </c>
       <c r="AF12">
-        <v>0.2442783066390175</v>
+        <v>0.2496415009556411</v>
       </c>
       <c r="AG12">
-        <v>0.248744674985434</v>
+        <v>0.2552289211896427</v>
       </c>
       <c r="AH12">
         <v>0.2402147733333333</v>
       </c>
       <c r="AI12">
-        <v>20.17394626493406</v>
+        <v>38.97554012570409</v>
       </c>
       <c r="AJ12">
-        <v>0.2230565752380951</v>
+        <v>0.2230565752380952</v>
       </c>
       <c r="AK12">
         <v>0</v>
@@ -2912,7 +2912,7 @@
         <v>0</v>
       </c>
       <c r="Q13">
-        <v>0.05249894719724466</v>
+        <v>0.05370624954703198</v>
       </c>
       <c r="R13">
         <v>0</v>
@@ -2924,10 +2924,10 @@
         <v>0</v>
       </c>
       <c r="U13">
-        <v>0.2102146100338443</v>
+        <v>0.8013883719956729</v>
       </c>
       <c r="V13">
-        <v>0.05267982945874502</v>
+        <v>0.05387069755731858</v>
       </c>
       <c r="W13">
         <v>0</v>
@@ -2939,13 +2939,13 @@
         <v>0</v>
       </c>
       <c r="Z13">
-        <v>0.2085015945479744</v>
+        <v>0.780033690715376</v>
       </c>
       <c r="AA13">
         <v>0</v>
       </c>
       <c r="AB13">
-        <v>0.05318309314310952</v>
+        <v>0.0545759014481828</v>
       </c>
       <c r="AC13">
         <v>0.1</v>
@@ -2957,16 +2957,16 @@
         <v>0</v>
       </c>
       <c r="AF13">
-        <v>0.05119647330652067</v>
+        <v>0.05232050531102633</v>
       </c>
       <c r="AG13">
-        <v>0.05213254622666868</v>
+        <v>0.05349153115772624</v>
       </c>
       <c r="AH13">
         <v>0.06083333333333331</v>
       </c>
       <c r="AI13">
-        <v>4.228107340559537</v>
+        <v>8.168593548511708</v>
       </c>
       <c r="AJ13">
         <v>0.1216666666666666</v>
@@ -3034,7 +3034,7 @@
         <v>0</v>
       </c>
       <c r="Q14">
-        <v>0.1978108479580132</v>
+        <v>0.2023598439722736</v>
       </c>
       <c r="R14">
         <v>0</v>
@@ -3046,10 +3046,10 @@
         <v>0</v>
       </c>
       <c r="U14">
-        <v>1.600300428130661</v>
+        <v>6.100727987446422</v>
       </c>
       <c r="V14">
-        <v>0.1984923944544318</v>
+        <v>0.2029794678332546</v>
       </c>
       <c r="W14">
         <v>0</v>
@@ -3061,13 +3061,13 @@
         <v>0</v>
       </c>
       <c r="Z14">
-        <v>1.587259757860452</v>
+        <v>5.938161239160224</v>
       </c>
       <c r="AA14">
         <v>0</v>
       </c>
       <c r="AB14">
-        <v>0.200388642312062</v>
+        <v>0.205636606444264</v>
       </c>
       <c r="AC14">
         <v>0.7599999999999999</v>
@@ -3079,19 +3079,19 @@
         <v>0</v>
       </c>
       <c r="AF14">
-        <v>0.1929032549771618</v>
+        <v>0.1971384965546325</v>
       </c>
       <c r="AG14">
-        <v>0.1964302852886331</v>
+        <v>0.201550806288124</v>
       </c>
       <c r="AH14">
         <v>0.2947037037037035</v>
       </c>
       <c r="AI14">
-        <v>15.93109086837989</v>
+        <v>30.77845371612068</v>
       </c>
       <c r="AJ14">
-        <v>0.9262116402116389</v>
+        <v>0.9262116402116394</v>
       </c>
       <c r="AK14">
         <v>0</v>
@@ -3156,7 +3156,7 @@
         <v>0</v>
       </c>
       <c r="Q15">
-        <v>98.25350226762684</v>
+        <v>98.21333858951974</v>
       </c>
       <c r="R15">
         <v>0</v>
@@ -3168,10 +3168,10 @@
         <v>0</v>
       </c>
       <c r="U15">
-        <v>74.68265472433458</v>
+        <v>76.10197140955225</v>
       </c>
       <c r="V15">
-        <v>96.6201887680056</v>
+        <v>96.54378553328112</v>
       </c>
       <c r="W15">
         <v>0</v>
@@ -3183,13 +3183,13 @@
         <v>0</v>
       </c>
       <c r="Z15">
-        <v>74.07407407407406</v>
+        <v>74.07407407407402</v>
       </c>
       <c r="AA15">
         <v>100</v>
       </c>
       <c r="AB15">
-        <v>97.54322577634407</v>
+        <v>97.8076090270161</v>
       </c>
       <c r="AC15">
         <v>85</v>
@@ -3201,10 +3201,10 @@
         <v>99.93623007906949</v>
       </c>
       <c r="AF15">
-        <v>93.89956205165797</v>
+        <v>93.76562533585368</v>
       </c>
       <c r="AG15">
-        <v>97.56777082889739</v>
+        <v>97.82068019225419</v>
       </c>
       <c r="AH15">
         <v>91.11679328808579</v>
@@ -3213,7 +3213,7 @@
         <v>0</v>
       </c>
       <c r="AJ15">
-        <v>77.02227765647899</v>
+        <v>90.15070716771798</v>
       </c>
       <c r="AK15">
         <v>0</v>
@@ -3278,7 +3278,7 @@
         <v>0</v>
       </c>
       <c r="Q16">
-        <v>0.3788174875850964</v>
+        <v>0.3875290383364611</v>
       </c>
       <c r="R16">
         <v>0</v>
@@ -3290,10 +3290,10 @@
         <v>0</v>
       </c>
       <c r="U16">
-        <v>23.50683023750091</v>
+        <v>16.99591223100565</v>
       </c>
       <c r="V16">
-        <v>1.241734096473468</v>
+        <v>1.269804451628268</v>
       </c>
       <c r="W16">
         <v>0</v>
@@ -3305,13 +3305,13 @@
         <v>0</v>
       </c>
       <c r="Z16">
-        <v>23.31527569134414</v>
+        <v>16.54302034806355</v>
       </c>
       <c r="AA16">
         <v>0</v>
       </c>
       <c r="AB16">
-        <v>0.3760790085516915</v>
+        <v>0.3859281153921871</v>
       </c>
       <c r="AC16">
         <v>13.41781515999999</v>
@@ -3323,10 +3323,10 @@
         <v>0</v>
       </c>
       <c r="AF16">
-        <v>4.022564687918848</v>
+        <v>4.11088115109287</v>
       </c>
       <c r="AG16">
-        <v>0.3761736422790019</v>
+        <v>0.3859796914425221</v>
       </c>
       <c r="AH16">
         <v>6.8828308651645</v>
@@ -3335,7 +3335,7 @@
         <v>0</v>
       </c>
       <c r="AJ16">
-        <v>21.38702407045631</v>
+        <v>8.258594559217322</v>
       </c>
       <c r="AK16">
         <v>0</v>
@@ -4132,7 +4132,7 @@
         <v>0</v>
       </c>
       <c r="Q23">
-        <v>1.117370449632785</v>
+        <v>1.143066278624483</v>
       </c>
       <c r="R23">
         <v>0</v>
@@ -4147,7 +4147,7 @@
         <v>0</v>
       </c>
       <c r="V23">
-        <v>1.098795882850504</v>
+        <v>1.123635009650551</v>
       </c>
       <c r="W23">
         <v>0</v>
@@ -4165,7 +4165,7 @@
         <v>0</v>
       </c>
       <c r="AB23">
-        <v>1.109292956778979</v>
+        <v>1.138344152406197</v>
       </c>
       <c r="AC23">
         <v>0</v>
@@ -4177,10 +4177,10 @@
         <v>0</v>
       </c>
       <c r="AF23">
-        <v>1.067856040227408</v>
+        <v>1.091301099777388</v>
       </c>
       <c r="AG23">
-        <v>1.109572091016179</v>
+        <v>1.138496282538627</v>
       </c>
       <c r="AH23">
         <v>0.9135803999999997</v>
@@ -5173,13 +5173,13 @@
     <row r="56" spans="1:4">
       <c r="A56" s="1"/>
       <c r="B56" s="1" t="s">
-        <v>120</v>
+        <v>138</v>
       </c>
       <c r="C56" t="s">
-        <v>121</v>
+        <v>123</v>
       </c>
       <c r="D56">
-        <v>1451.211728244062</v>
+        <v>3831.198962564325</v>
       </c>
     </row>
     <row r="57" spans="1:4">

--- a/exposan/bwaise/results/sysA_report.xlsx
+++ b/exposan/bwaise/results/sysA_report.xlsx
@@ -1211,7 +1211,7 @@
         <v>1.844584819260415</v>
       </c>
       <c r="K3">
-        <v>0.203425177162986</v>
+        <v>0.2060166689326704</v>
       </c>
       <c r="L3">
         <v>0</v>
@@ -1220,19 +1220,19 @@
         <v>0</v>
       </c>
       <c r="N3">
-        <v>-5.568899353034929</v>
+        <v>-5.566307861265245</v>
       </c>
       <c r="O3">
-        <v>-1.641159642097429</v>
+        <v>-1.638568150327745</v>
       </c>
       <c r="P3">
         <v>0.9523809523809523</v>
       </c>
       <c r="Q3">
-        <v>-1.563009182949933</v>
+        <v>-1.560541095550233</v>
       </c>
       <c r="R3">
-        <v>-32.98492687044993</v>
+        <v>-32.98245878305023</v>
       </c>
     </row>
     <row r="4" spans="1:18">
@@ -1267,7 +1267,7 @@
         <v>1.844584819260415</v>
       </c>
       <c r="K4">
-        <v>0.203425177162986</v>
+        <v>0.2060166689326704</v>
       </c>
       <c r="L4">
         <v>0</v>
@@ -1276,19 +1276,19 @@
         <v>0</v>
       </c>
       <c r="N4">
-        <v>-5.568899353034929</v>
+        <v>-5.566307861265245</v>
       </c>
       <c r="O4">
-        <v>-1.641159642097429</v>
+        <v>-1.638568150327745</v>
       </c>
       <c r="P4">
         <v>0.9070294784580498</v>
       </c>
       <c r="Q4">
-        <v>-1.488580174238031</v>
+        <v>-1.486229614809746</v>
       </c>
       <c r="R4">
-        <v>-34.47350704468796</v>
+        <v>-34.46868839785998</v>
       </c>
     </row>
     <row r="5" spans="1:18">
@@ -1323,7 +1323,7 @@
         <v>1.844584819260415</v>
       </c>
       <c r="K5">
-        <v>0.203425177162986</v>
+        <v>0.2060166689326704</v>
       </c>
       <c r="L5">
         <v>0</v>
@@ -1332,19 +1332,19 @@
         <v>0</v>
       </c>
       <c r="N5">
-        <v>-5.568899353034929</v>
+        <v>-5.566307861265245</v>
       </c>
       <c r="O5">
-        <v>-1.641159642097429</v>
+        <v>-1.638568150327745</v>
       </c>
       <c r="P5">
         <v>0.863837598531476</v>
       </c>
       <c r="Q5">
-        <v>-1.41769540403622</v>
+        <v>-1.415456776009282</v>
       </c>
       <c r="R5">
-        <v>-35.89120244872418</v>
+        <v>-35.88414517386926</v>
       </c>
     </row>
     <row r="6" spans="1:18">
@@ -1379,7 +1379,7 @@
         <v>1.844584819260415</v>
       </c>
       <c r="K6">
-        <v>0.203425177162986</v>
+        <v>0.2060166689326704</v>
       </c>
       <c r="L6">
         <v>0</v>
@@ -1388,19 +1388,19 @@
         <v>0</v>
       </c>
       <c r="N6">
-        <v>-5.568899353034929</v>
+        <v>-5.566307861265245</v>
       </c>
       <c r="O6">
-        <v>-1.641159642097429</v>
+        <v>-1.638568150327745</v>
       </c>
       <c r="P6">
         <v>0.8227024747918819</v>
       </c>
       <c r="Q6">
-        <v>-1.350186099082114</v>
+        <v>-1.348054072389792</v>
       </c>
       <c r="R6">
-        <v>-37.2413885478063</v>
+        <v>-37.23219924625905</v>
       </c>
     </row>
     <row r="7" spans="1:18">
@@ -1435,7 +1435,7 @@
         <v>1.844584819260415</v>
       </c>
       <c r="K7">
-        <v>0.203425177162986</v>
+        <v>0.2060166689326704</v>
       </c>
       <c r="L7">
         <v>0</v>
@@ -1444,19 +1444,19 @@
         <v>0</v>
       </c>
       <c r="N7">
-        <v>-5.568899353034929</v>
+        <v>-5.566307861265245</v>
       </c>
       <c r="O7">
-        <v>-1.641159642097429</v>
+        <v>-1.638568150327745</v>
       </c>
       <c r="P7">
         <v>0.7835261664684589</v>
       </c>
       <c r="Q7">
-        <v>-1.285891522935347</v>
+        <v>-1.283861021323611</v>
       </c>
       <c r="R7">
-        <v>-38.52728007074164</v>
+        <v>-38.51606026758266</v>
       </c>
     </row>
     <row r="8" spans="1:18">
@@ -1491,7 +1491,7 @@
         <v>1.844584819260415</v>
       </c>
       <c r="K8">
-        <v>0.203425177162986</v>
+        <v>0.2060166689326704</v>
       </c>
       <c r="L8">
         <v>0</v>
@@ -1500,19 +1500,19 @@
         <v>0</v>
       </c>
       <c r="N8">
-        <v>-5.568899353034929</v>
+        <v>-5.566307861265245</v>
       </c>
       <c r="O8">
-        <v>-1.641159642097429</v>
+        <v>-1.638568150327745</v>
       </c>
       <c r="P8">
         <v>0.7462153966366274</v>
       </c>
       <c r="Q8">
-        <v>-1.224658593271759</v>
+        <v>-1.222724782212963</v>
       </c>
       <c r="R8">
-        <v>-39.7519386640134</v>
+        <v>-39.73878504979563</v>
       </c>
     </row>
     <row r="9" spans="1:18">
@@ -1547,7 +1547,7 @@
         <v>1.844584819260415</v>
       </c>
       <c r="K9">
-        <v>0.203425177162986</v>
+        <v>0.2060166689326704</v>
       </c>
       <c r="L9">
         <v>0</v>
@@ -1556,19 +1556,19 @@
         <v>0</v>
       </c>
       <c r="N9">
-        <v>-5.568899353034929</v>
+        <v>-5.566307861265245</v>
       </c>
       <c r="O9">
-        <v>-1.641159642097429</v>
+        <v>-1.638568150327745</v>
       </c>
       <c r="P9">
         <v>0.7106813301301214</v>
       </c>
       <c r="Q9">
-        <v>-1.166341517401675</v>
+        <v>-1.164499792583774</v>
       </c>
       <c r="R9">
-        <v>-40.91828018141507</v>
+        <v>-40.9032848423794</v>
       </c>
     </row>
     <row r="10" spans="1:18">
@@ -1603,7 +1603,7 @@
         <v>1.844584819260415</v>
       </c>
       <c r="K10">
-        <v>0.203425177162986</v>
+        <v>0.2060166689326704</v>
       </c>
       <c r="L10">
         <v>0</v>
@@ -1612,19 +1612,19 @@
         <v>0</v>
       </c>
       <c r="N10">
-        <v>-5.568899353034929</v>
+        <v>-5.566307861265245</v>
       </c>
       <c r="O10">
-        <v>-1.641159642097429</v>
+        <v>-1.638568150327745</v>
       </c>
       <c r="P10">
         <v>0.676839362028687</v>
       </c>
       <c r="Q10">
-        <v>-1.110801445144452</v>
+        <v>-1.109047421508357</v>
       </c>
       <c r="R10">
-        <v>-42.02908162655952</v>
+        <v>-42.01233226388776</v>
       </c>
     </row>
   </sheetData>
@@ -2273,25 +2273,25 @@
         <v>1.369772811063618</v>
       </c>
       <c r="I7">
-        <v>0.9473035821067107</v>
+        <v>0.9272875593018487</v>
       </c>
       <c r="J7">
-        <v>2.210125345775329</v>
+        <v>2.205579427951647</v>
       </c>
       <c r="K7">
-        <v>0.01929862037353415</v>
+        <v>0.01925892581842838</v>
       </c>
       <c r="L7">
-        <v>89.28500177060526</v>
+        <v>89.2804558527816</v>
       </c>
       <c r="M7">
-        <v>0.966602202480245</v>
+        <v>0.9465464851202772</v>
       </c>
       <c r="N7">
         <v>28.25077749748643</v>
       </c>
       <c r="O7">
-        <v>11.06791860488467</v>
+        <v>11.84808858466508</v>
       </c>
       <c r="P7">
         <v>4.934529836990166</v>
@@ -2303,13 +2303,13 @@
         <v>4.307531168981041</v>
       </c>
       <c r="S7">
-        <v>0.6695975807819345</v>
+        <v>0.6746496150681227</v>
       </c>
       <c r="T7">
         <v>3.049287990281032</v>
       </c>
       <c r="U7">
-        <v>293.1851518071049</v>
+        <v>294.0695484670359</v>
       </c>
       <c r="V7">
         <v>11215.19617148378</v>
@@ -2324,13 +2324,13 @@
         <v>0</v>
       </c>
       <c r="Z7">
-        <v>301.2115685471489</v>
+        <v>302.1010172413662</v>
       </c>
       <c r="AA7">
-        <v>1517.815239877236</v>
+        <v>1517.156388992631</v>
       </c>
       <c r="AB7">
-        <v>11070.27873050582</v>
+        <v>11071.07482232193</v>
       </c>
       <c r="AC7">
         <v>0.01041666666666667</v>
@@ -2345,13 +2345,13 @@
         <v>11547.48864538725</v>
       </c>
       <c r="AG7">
-        <v>11068.79947844753</v>
+        <v>11069.57964842731</v>
       </c>
       <c r="AH7">
         <v>14075.35273972603</v>
       </c>
       <c r="AI7">
-        <v>1.479252058293635</v>
+        <v>1.495173894615683</v>
       </c>
       <c r="AJ7">
         <v>1931.138395890412</v>
@@ -2573,13 +2573,13 @@
         <v>0</v>
       </c>
       <c r="Z10">
-        <v>0.2223014155836189</v>
+        <v>0.2233192132978174</v>
       </c>
       <c r="AA10">
         <v>0</v>
       </c>
       <c r="AB10">
-        <v>0.1020190617573027</v>
+        <v>0.1092024623165462</v>
       </c>
       <c r="AC10">
         <v>0.26297856</v>
@@ -2594,13 +2594,13 @@
         <v>0.2250763398232703</v>
       </c>
       <c r="AG10">
-        <v>0.09999204183286028</v>
+        <v>0.1070328681030664</v>
       </c>
       <c r="AH10">
         <v>0.2110829066666666</v>
       </c>
       <c r="AI10">
-        <v>15.26960118995282</v>
+        <v>16.17187987888233</v>
       </c>
       <c r="AJ10">
         <v>0.1618623313054372</v>
@@ -2695,13 +2695,13 @@
         <v>0</v>
       </c>
       <c r="Z11">
-        <v>1.012340928666465</v>
+        <v>1.009360384855897</v>
       </c>
       <c r="AA11">
         <v>0</v>
       </c>
       <c r="AB11">
-        <v>0.04548426150884203</v>
+        <v>0.04548099085545654</v>
       </c>
       <c r="AC11">
         <v>0.15953652</v>
@@ -2716,13 +2716,13 @@
         <v>0.1090114630585144</v>
       </c>
       <c r="AG11">
-        <v>0.04458053329630168</v>
+        <v>0.04457739131667236</v>
       </c>
       <c r="AH11">
         <v>0.1133648633333333</v>
       </c>
       <c r="AI11">
-        <v>6.807811419710693</v>
+        <v>6.735316267456936</v>
       </c>
       <c r="AJ11">
         <v>0.157901059642857</v>
@@ -2817,13 +2817,13 @@
         <v>0</v>
       </c>
       <c r="Z12">
-        <v>1.43006830373674</v>
+        <v>1.425857883007227</v>
       </c>
       <c r="AA12">
         <v>0</v>
       </c>
       <c r="AB12">
-        <v>0.2604028740269107</v>
+        <v>0.2603841491424501</v>
       </c>
       <c r="AC12">
         <v>0.23392512</v>
@@ -2838,13 +2838,13 @@
         <v>0.2496415009556411</v>
       </c>
       <c r="AG12">
-        <v>0.2552289211896427</v>
+        <v>0.2552109329779303</v>
       </c>
       <c r="AH12">
         <v>0.2402147733333333</v>
       </c>
       <c r="AI12">
-        <v>38.97554012570409</v>
+        <v>38.56049664970466</v>
       </c>
       <c r="AJ12">
         <v>0.2230565752380952</v>
@@ -2924,7 +2924,7 @@
         <v>0</v>
       </c>
       <c r="U13">
-        <v>0.8013883719956729</v>
+        <v>0.798978244176607</v>
       </c>
       <c r="V13">
         <v>0.05387069755731858</v>
@@ -2939,13 +2939,13 @@
         <v>0</v>
       </c>
       <c r="Z13">
-        <v>0.780033690715376</v>
+        <v>0.7777371080888502</v>
       </c>
       <c r="AA13">
         <v>0</v>
       </c>
       <c r="AB13">
-        <v>0.0545759014481828</v>
+        <v>0.05457197703892745</v>
       </c>
       <c r="AC13">
         <v>0.1</v>
@@ -2960,13 +2960,13 @@
         <v>0.05232050531102633</v>
       </c>
       <c r="AG13">
-        <v>0.05349153115772624</v>
+        <v>0.05348776114223268</v>
       </c>
       <c r="AH13">
         <v>0.06083333333333331</v>
       </c>
       <c r="AI13">
-        <v>8.168593548511708</v>
+        <v>8.081607673538166</v>
       </c>
       <c r="AJ13">
         <v>0.1216666666666666</v>
@@ -3046,7 +3046,7 @@
         <v>0</v>
       </c>
       <c r="U14">
-        <v>6.100727987446422</v>
+        <v>6.082380411223818</v>
       </c>
       <c r="V14">
         <v>0.2029794678332546</v>
@@ -3061,13 +3061,13 @@
         <v>0</v>
       </c>
       <c r="Z14">
-        <v>5.938161239160224</v>
+        <v>5.920678048244642</v>
       </c>
       <c r="AA14">
         <v>0</v>
       </c>
       <c r="AB14">
-        <v>0.205636606444264</v>
+        <v>0.2056218196577859</v>
       </c>
       <c r="AC14">
         <v>0.7599999999999999</v>
@@ -3082,13 +3082,13 @@
         <v>0.1971384965546325</v>
       </c>
       <c r="AG14">
-        <v>0.201550806288124</v>
+        <v>0.2015366012420915</v>
       </c>
       <c r="AH14">
         <v>0.2947037037037035</v>
       </c>
       <c r="AI14">
-        <v>30.77845371612068</v>
+        <v>30.4506995304179</v>
       </c>
       <c r="AJ14">
         <v>0.9262116402116394</v>
@@ -3168,7 +3168,7 @@
         <v>0</v>
       </c>
       <c r="U15">
-        <v>76.10197140955225</v>
+        <v>76.09714520134533</v>
       </c>
       <c r="V15">
         <v>96.54378553328112</v>
@@ -3183,13 +3183,13 @@
         <v>0</v>
       </c>
       <c r="Z15">
-        <v>74.07407407407402</v>
+        <v>74.07407407407409</v>
       </c>
       <c r="AA15">
         <v>100</v>
       </c>
       <c r="AB15">
-        <v>97.8076090270161</v>
+        <v>97.80057593959246</v>
       </c>
       <c r="AC15">
         <v>85</v>
@@ -3204,7 +3204,7 @@
         <v>93.76562533585368</v>
       </c>
       <c r="AG15">
-        <v>97.82068019225419</v>
+        <v>97.8137859143763</v>
       </c>
       <c r="AH15">
         <v>91.11679328808579</v>
@@ -3290,7 +3290,7 @@
         <v>0</v>
       </c>
       <c r="U16">
-        <v>16.99591223100565</v>
+        <v>17.02149614325426</v>
       </c>
       <c r="V16">
         <v>1.269804451628268</v>
@@ -3305,13 +3305,13 @@
         <v>0</v>
       </c>
       <c r="Z16">
-        <v>16.54302034806355</v>
+        <v>16.56897328843148</v>
       </c>
       <c r="AA16">
         <v>0</v>
       </c>
       <c r="AB16">
-        <v>0.3859281153921871</v>
+        <v>0.3859003643184027</v>
       </c>
       <c r="AC16">
         <v>13.41781515999999</v>
@@ -3326,7 +3326,7 @@
         <v>4.11088115109287</v>
       </c>
       <c r="AG16">
-        <v>0.3859796914425221</v>
+        <v>0.3859524880818135</v>
       </c>
       <c r="AH16">
         <v>6.8828308651645</v>
@@ -4165,7 +4165,7 @@
         <v>0</v>
       </c>
       <c r="AB23">
-        <v>1.138344152406197</v>
+        <v>1.138262297077949</v>
       </c>
       <c r="AC23">
         <v>0</v>
@@ -4180,7 +4180,7 @@
         <v>1.091301099777388</v>
       </c>
       <c r="AG23">
-        <v>1.138496282538627</v>
+        <v>1.138416042759887</v>
       </c>
       <c r="AH23">
         <v>0.9135803999999997</v>

--- a/exposan/bwaise/results/sysA_report.xlsx
+++ b/exposan/bwaise/results/sysA_report.xlsx
@@ -587,8 +587,8 @@
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>158</xdr:col>
-      <xdr:colOff>104775</xdr:colOff>
+      <xdr:col>127</xdr:col>
+      <xdr:colOff>552450</xdr:colOff>
       <xdr:row>105</xdr:row>
       <xdr:rowOff>38100</xdr:rowOff>
     </xdr:to>
@@ -608,7 +608,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="0" y="0"/>
-          <a:ext cx="96421575" cy="20040600"/>
+          <a:ext cx="77971650" cy="20040600"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -1211,7 +1211,7 @@
         <v>1.844584819260415</v>
       </c>
       <c r="K3">
-        <v>0.2060166689326704</v>
+        <v>0.2060166689326703</v>
       </c>
       <c r="L3">
         <v>0</v>
@@ -1267,7 +1267,7 @@
         <v>1.844584819260415</v>
       </c>
       <c r="K4">
-        <v>0.2060166689326704</v>
+        <v>0.2060166689326703</v>
       </c>
       <c r="L4">
         <v>0</v>
@@ -1323,7 +1323,7 @@
         <v>1.844584819260415</v>
       </c>
       <c r="K5">
-        <v>0.2060166689326704</v>
+        <v>0.2060166689326703</v>
       </c>
       <c r="L5">
         <v>0</v>
@@ -1379,7 +1379,7 @@
         <v>1.844584819260415</v>
       </c>
       <c r="K6">
-        <v>0.2060166689326704</v>
+        <v>0.2060166689326703</v>
       </c>
       <c r="L6">
         <v>0</v>
@@ -1435,7 +1435,7 @@
         <v>1.844584819260415</v>
       </c>
       <c r="K7">
-        <v>0.2060166689326704</v>
+        <v>0.2060166689326703</v>
       </c>
       <c r="L7">
         <v>0</v>
@@ -1491,7 +1491,7 @@
         <v>1.844584819260415</v>
       </c>
       <c r="K8">
-        <v>0.2060166689326704</v>
+        <v>0.2060166689326703</v>
       </c>
       <c r="L8">
         <v>0</v>
@@ -1547,7 +1547,7 @@
         <v>1.844584819260415</v>
       </c>
       <c r="K9">
-        <v>0.2060166689326704</v>
+        <v>0.2060166689326703</v>
       </c>
       <c r="L9">
         <v>0</v>
@@ -1603,7 +1603,7 @@
         <v>1.844584819260415</v>
       </c>
       <c r="K10">
-        <v>0.2060166689326704</v>
+        <v>0.2060166689326703</v>
       </c>
       <c r="L10">
         <v>0</v>
@@ -2252,7 +2252,7 @@
         <v>78</v>
       </c>
       <c r="B7">
-        <v>42.02830025162717</v>
+        <v>42.02830025162718</v>
       </c>
       <c r="C7">
         <v>0</v>
@@ -2273,7 +2273,7 @@
         <v>1.369772811063618</v>
       </c>
       <c r="I7">
-        <v>0.9272875593018487</v>
+        <v>0.927287559301849</v>
       </c>
       <c r="J7">
         <v>2.205579427951647</v>
@@ -2282,16 +2282,16 @@
         <v>0.01925892581842838</v>
       </c>
       <c r="L7">
-        <v>89.2804558527816</v>
+        <v>89.28045585278163</v>
       </c>
       <c r="M7">
-        <v>0.9465464851202772</v>
+        <v>0.9465464851202775</v>
       </c>
       <c r="N7">
         <v>28.25077749748643</v>
       </c>
       <c r="O7">
-        <v>11.84808858466508</v>
+        <v>11.84808858466507</v>
       </c>
       <c r="P7">
         <v>4.934529836990166</v>
@@ -2303,13 +2303,13 @@
         <v>4.307531168981041</v>
       </c>
       <c r="S7">
-        <v>0.6746496150681227</v>
+        <v>0.6746496150681223</v>
       </c>
       <c r="T7">
         <v>3.049287990281032</v>
       </c>
       <c r="U7">
-        <v>294.0695484670359</v>
+        <v>294.069548467036</v>
       </c>
       <c r="V7">
         <v>11215.19617148378</v>
@@ -2324,13 +2324,13 @@
         <v>0</v>
       </c>
       <c r="Z7">
-        <v>302.1010172413662</v>
+        <v>302.1010172413663</v>
       </c>
       <c r="AA7">
         <v>1517.156388992631</v>
       </c>
       <c r="AB7">
-        <v>11071.07482232193</v>
+        <v>11071.07482232192</v>
       </c>
       <c r="AC7">
         <v>0.01041666666666667</v>
@@ -2348,7 +2348,7 @@
         <v>11069.57964842731</v>
       </c>
       <c r="AH7">
-        <v>14075.35273972603</v>
+        <v>14075.35273972604</v>
       </c>
       <c r="AI7">
         <v>1.495173894615683</v>
@@ -2363,7 +2363,7 @@
         <v>13793.84568493152</v>
       </c>
       <c r="AM7">
-        <v>0.05833333333333333</v>
+        <v>0.05833333333333334</v>
       </c>
       <c r="AN7">
         <v>13793.84568493152</v>
@@ -2439,7 +2439,7 @@
         <v>0</v>
       </c>
       <c r="V9">
-        <v>0.2049003546123657</v>
+        <v>0.2049003546123656</v>
       </c>
       <c r="W9">
         <v>0</v>
@@ -2469,13 +2469,13 @@
         <v>0.03670593194421815</v>
       </c>
       <c r="AF9">
-        <v>0.1990041075729682</v>
+        <v>0.1990041075729681</v>
       </c>
       <c r="AG9">
         <v>0</v>
       </c>
       <c r="AH9">
-        <v>0.1665958663793536</v>
+        <v>0.1665958663793535</v>
       </c>
       <c r="AI9">
         <v>0</v>
@@ -2487,13 +2487,13 @@
         <v>0</v>
       </c>
       <c r="AL9">
-        <v>0.1665958663793536</v>
+        <v>0.1665958663793534</v>
       </c>
       <c r="AM9">
         <v>0.3659002285714285</v>
       </c>
       <c r="AN9">
-        <v>0.1665958663793536</v>
+        <v>0.1665958663793534</v>
       </c>
     </row>
     <row r="10" spans="1:40">
@@ -2573,13 +2573,13 @@
         <v>0</v>
       </c>
       <c r="Z10">
-        <v>0.2233192132978174</v>
+        <v>0.2233192132978172</v>
       </c>
       <c r="AA10">
         <v>0</v>
       </c>
       <c r="AB10">
-        <v>0.1092024623165462</v>
+        <v>0.1092024623165461</v>
       </c>
       <c r="AC10">
         <v>0.26297856</v>
@@ -2594,7 +2594,7 @@
         <v>0.2250763398232703</v>
       </c>
       <c r="AG10">
-        <v>0.1070328681030664</v>
+        <v>0.1070328681030663</v>
       </c>
       <c r="AH10">
         <v>0.2110829066666666</v>
@@ -2603,19 +2603,19 @@
         <v>16.17187987888233</v>
       </c>
       <c r="AJ10">
-        <v>0.1618623313054372</v>
+        <v>0.1618623313054371</v>
       </c>
       <c r="AK10">
         <v>0</v>
       </c>
       <c r="AL10">
-        <v>0.2110829066666666</v>
+        <v>0.2110829066666665</v>
       </c>
       <c r="AM10">
         <v>0.06457062857142859</v>
       </c>
       <c r="AN10">
-        <v>0.2110829066666666</v>
+        <v>0.2110829066666665</v>
       </c>
     </row>
     <row r="11" spans="1:40">
@@ -2695,7 +2695,7 @@
         <v>0</v>
       </c>
       <c r="Z11">
-        <v>1.009360384855897</v>
+        <v>1.009360384855896</v>
       </c>
       <c r="AA11">
         <v>0</v>
@@ -2719,7 +2719,7 @@
         <v>0.04457739131667236</v>
       </c>
       <c r="AH11">
-        <v>0.1133648633333333</v>
+        <v>0.1133648633333332</v>
       </c>
       <c r="AI11">
         <v>6.735316267456936</v>
@@ -2805,7 +2805,7 @@
         <v>0</v>
       </c>
       <c r="V12">
-        <v>0.257038071704216</v>
+        <v>0.2570380717042159</v>
       </c>
       <c r="W12">
         <v>0</v>
@@ -2817,13 +2817,13 @@
         <v>0</v>
       </c>
       <c r="Z12">
-        <v>1.425857883007227</v>
+        <v>1.425857883007226</v>
       </c>
       <c r="AA12">
         <v>0</v>
       </c>
       <c r="AB12">
-        <v>0.2603841491424501</v>
+        <v>0.2603841491424502</v>
       </c>
       <c r="AC12">
         <v>0.23392512</v>
@@ -2841,7 +2841,7 @@
         <v>0.2552109329779303</v>
       </c>
       <c r="AH12">
-        <v>0.2402147733333333</v>
+        <v>0.2402147733333332</v>
       </c>
       <c r="AI12">
         <v>38.56049664970466</v>
@@ -2924,10 +2924,10 @@
         <v>0</v>
       </c>
       <c r="U13">
-        <v>0.798978244176607</v>
+        <v>0.7989782441766067</v>
       </c>
       <c r="V13">
-        <v>0.05387069755731858</v>
+        <v>0.05387069755731856</v>
       </c>
       <c r="W13">
         <v>0</v>
@@ -2939,13 +2939,13 @@
         <v>0</v>
       </c>
       <c r="Z13">
-        <v>0.7777371080888502</v>
+        <v>0.77773710808885</v>
       </c>
       <c r="AA13">
         <v>0</v>
       </c>
       <c r="AB13">
-        <v>0.05457197703892745</v>
+        <v>0.05457197703892746</v>
       </c>
       <c r="AC13">
         <v>0.1</v>
@@ -2963,7 +2963,7 @@
         <v>0.05348776114223268</v>
       </c>
       <c r="AH13">
-        <v>0.06083333333333331</v>
+        <v>0.06083333333333329</v>
       </c>
       <c r="AI13">
         <v>8.081607673538166</v>
@@ -2975,13 +2975,13 @@
         <v>0</v>
       </c>
       <c r="AL13">
-        <v>0.0608333333333333</v>
+        <v>0.06083333333333329</v>
       </c>
       <c r="AM13">
         <v>0.01428571428571429</v>
       </c>
       <c r="AN13">
-        <v>0.0608333333333333</v>
+        <v>0.06083333333333329</v>
       </c>
     </row>
     <row r="14" spans="1:40">
@@ -3046,7 +3046,7 @@
         <v>0</v>
       </c>
       <c r="U14">
-        <v>6.082380411223818</v>
+        <v>6.082380411223816</v>
       </c>
       <c r="V14">
         <v>0.2029794678332546</v>
@@ -3061,7 +3061,7 @@
         <v>0</v>
       </c>
       <c r="Z14">
-        <v>5.920678048244642</v>
+        <v>5.92067804824464</v>
       </c>
       <c r="AA14">
         <v>0</v>
@@ -3085,7 +3085,7 @@
         <v>0.2015366012420915</v>
       </c>
       <c r="AH14">
-        <v>0.2947037037037035</v>
+        <v>0.2947037037037034</v>
       </c>
       <c r="AI14">
         <v>30.4506995304179</v>
@@ -3097,13 +3097,13 @@
         <v>0</v>
       </c>
       <c r="AL14">
-        <v>0.2947037037037035</v>
+        <v>0.2947037037037034</v>
       </c>
       <c r="AM14">
         <v>0.02</v>
       </c>
       <c r="AN14">
-        <v>0.2947037037037035</v>
+        <v>0.2947037037037034</v>
       </c>
     </row>
     <row r="15" spans="1:40">
@@ -3168,10 +3168,10 @@
         <v>0</v>
       </c>
       <c r="U15">
-        <v>76.09714520134533</v>
+        <v>76.09714520134528</v>
       </c>
       <c r="V15">
-        <v>96.54378553328112</v>
+        <v>96.5437855332811</v>
       </c>
       <c r="W15">
         <v>0</v>
@@ -3183,13 +3183,13 @@
         <v>0</v>
       </c>
       <c r="Z15">
-        <v>74.07407407407409</v>
+        <v>74.07407407407406</v>
       </c>
       <c r="AA15">
         <v>100</v>
       </c>
       <c r="AB15">
-        <v>97.80057593959246</v>
+        <v>97.80057593959248</v>
       </c>
       <c r="AC15">
         <v>85</v>
@@ -3201,13 +3201,13 @@
         <v>99.93623007906949</v>
       </c>
       <c r="AF15">
-        <v>93.76562533585368</v>
+        <v>93.76562533585367</v>
       </c>
       <c r="AG15">
         <v>97.8137859143763</v>
       </c>
       <c r="AH15">
-        <v>91.11679328808579</v>
+        <v>91.11679328808577</v>
       </c>
       <c r="AI15">
         <v>0</v>
@@ -3219,13 +3219,13 @@
         <v>0</v>
       </c>
       <c r="AL15">
-        <v>91.11679328808579</v>
+        <v>91.11679328808576</v>
       </c>
       <c r="AM15">
         <v>94.99999999999999</v>
       </c>
       <c r="AN15">
-        <v>91.11679328808579</v>
+        <v>91.11679328808576</v>
       </c>
     </row>
     <row r="16" spans="1:40">
@@ -3278,7 +3278,7 @@
         <v>0</v>
       </c>
       <c r="Q16">
-        <v>0.3875290383364611</v>
+        <v>0.3875290383364617</v>
       </c>
       <c r="R16">
         <v>0</v>
@@ -3290,10 +3290,10 @@
         <v>0</v>
       </c>
       <c r="U16">
-        <v>17.02149614325426</v>
+        <v>17.02149614325428</v>
       </c>
       <c r="V16">
-        <v>1.269804451628268</v>
+        <v>1.26980445162827</v>
       </c>
       <c r="W16">
         <v>0</v>
@@ -3305,13 +3305,13 @@
         <v>0</v>
       </c>
       <c r="Z16">
-        <v>16.56897328843148</v>
+        <v>16.5689732884315</v>
       </c>
       <c r="AA16">
         <v>0</v>
       </c>
       <c r="AB16">
-        <v>0.3859003643184027</v>
+        <v>0.3859003643184034</v>
       </c>
       <c r="AC16">
         <v>13.41781515999999</v>
@@ -3323,31 +3323,31 @@
         <v>0</v>
       </c>
       <c r="AF16">
-        <v>4.11088115109287</v>
+        <v>4.110881151092876</v>
       </c>
       <c r="AG16">
-        <v>0.3859524880818135</v>
+        <v>0.3859524880818141</v>
       </c>
       <c r="AH16">
-        <v>6.8828308651645</v>
+        <v>6.88283086516451</v>
       </c>
       <c r="AI16">
         <v>0</v>
       </c>
       <c r="AJ16">
-        <v>8.258594559217322</v>
+        <v>8.258594559217334</v>
       </c>
       <c r="AK16">
         <v>0</v>
       </c>
       <c r="AL16">
-        <v>6.882830865164499</v>
+        <v>6.882830865164509</v>
       </c>
       <c r="AM16">
-        <v>4.371793721428576</v>
+        <v>4.371793721428588</v>
       </c>
       <c r="AN16">
-        <v>6.882830865164499</v>
+        <v>6.882830865164509</v>
       </c>
     </row>
     <row r="17" spans="1:40">
@@ -4177,13 +4177,13 @@
         <v>0</v>
       </c>
       <c r="AF23">
-        <v>1.091301099777388</v>
+        <v>1.091301099777387</v>
       </c>
       <c r="AG23">
         <v>1.138416042759887</v>
       </c>
       <c r="AH23">
-        <v>0.9135803999999997</v>
+        <v>0.9135803999999995</v>
       </c>
       <c r="AI23">
         <v>0</v>
@@ -4195,13 +4195,13 @@
         <v>100</v>
       </c>
       <c r="AL23">
-        <v>0.9135803999999996</v>
+        <v>0.9135803999999995</v>
       </c>
       <c r="AM23">
         <v>0</v>
       </c>
       <c r="AN23">
-        <v>0.9135803999999996</v>
+        <v>0.9135803999999995</v>
       </c>
     </row>
     <row r="24" spans="1:40">
